--- a/fantasyBasketballGui/PlayerData/NBA_players.xlsx
+++ b/fantasyBasketballGui/PlayerData/NBA_players.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="4660" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="706">
   <si>
     <t>Rk</t>
   </si>
@@ -285,9 +285,6 @@
     <t>31\</t>
   </si>
   <si>
-    <t>Marvin Bagley\\baglema01</t>
-  </si>
-  <si>
     <t>SAC</t>
   </si>
   <si>
@@ -2125,6 +2122,21 @@
   </si>
   <si>
     <t>XX</t>
+  </si>
+  <si>
+    <t>Isaiah Thomas\\thomasis01</t>
+  </si>
+  <si>
+    <t>DeMarcus Cousins\\cousinsde01</t>
+  </si>
+  <si>
+    <t>Marvin Bagley III\\baglema01</t>
+  </si>
+  <si>
+    <t>John Collins\\collinsjo01</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis\\porzingiskr01</t>
   </si>
 </sst>
 </file>
@@ -2493,10 +2505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD435"/>
+  <dimension ref="A1:AD439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="D436" sqref="D436"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4423,7 +4435,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>703</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -4432,7 +4444,7 @@
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22">
         <v>13</v>
@@ -4515,7 +4527,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -4524,7 +4536,7 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -4599,7 +4611,7 @@
         <v>13</v>
       </c>
       <c r="AD23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -4607,7 +4619,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
@@ -4696,7 +4708,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -4705,7 +4717,7 @@
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25">
         <v>13</v>
@@ -4780,7 +4792,7 @@
         <v>25</v>
       </c>
       <c r="AD25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -4788,7 +4800,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -4872,7 +4884,7 @@
         <v>26</v>
       </c>
       <c r="AD26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -4880,7 +4892,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -4889,7 +4901,7 @@
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27">
         <v>12</v>
@@ -4964,7 +4976,7 @@
         <v>21</v>
       </c>
       <c r="AD27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -4972,7 +4984,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
         <v>59</v>
@@ -4981,7 +4993,7 @@
         <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F28">
         <v>8</v>
@@ -5056,7 +5068,7 @@
         <v>22</v>
       </c>
       <c r="AD28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -5064,7 +5076,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -5148,7 +5160,7 @@
         <v>5</v>
       </c>
       <c r="AD29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -5156,7 +5168,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
         <v>59</v>
@@ -5165,7 +5177,7 @@
         <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -5237,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="AD30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -5245,7 +5257,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
         <v>59</v>
@@ -5337,7 +5349,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -5346,7 +5358,7 @@
         <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -5421,7 +5433,7 @@
         <v>19</v>
       </c>
       <c r="AD32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -5429,7 +5441,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
@@ -5513,7 +5525,7 @@
         <v>36</v>
       </c>
       <c r="AD33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -5521,7 +5533,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
         <v>31</v>
@@ -5530,7 +5542,7 @@
         <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F34">
         <v>12</v>
@@ -5605,7 +5617,7 @@
         <v>40</v>
       </c>
       <c r="AD34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -5613,7 +5625,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
@@ -5697,7 +5709,7 @@
         <v>20</v>
       </c>
       <c r="AD35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -5705,7 +5717,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -5714,7 +5726,7 @@
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -5794,7 +5806,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
         <v>31</v>
@@ -5878,7 +5890,7 @@
         <v>17</v>
       </c>
       <c r="AD37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -5886,7 +5898,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
@@ -5895,7 +5907,7 @@
         <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F38">
         <v>12</v>
@@ -5967,7 +5979,7 @@
         <v>21</v>
       </c>
       <c r="AD38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -5975,7 +5987,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
@@ -6059,7 +6071,7 @@
         <v>30</v>
       </c>
       <c r="AD39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -6067,7 +6079,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -6148,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="AD40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -6156,7 +6168,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -6240,7 +6252,7 @@
         <v>13</v>
       </c>
       <c r="AD41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -6248,7 +6260,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
         <v>35</v>
@@ -6257,7 +6269,7 @@
         <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F42">
         <v>12</v>
@@ -6332,7 +6344,7 @@
         <v>47</v>
       </c>
       <c r="AD42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -6340,7 +6352,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
         <v>39</v>
@@ -6418,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="AD43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -6426,7 +6438,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
         <v>39</v>
@@ -6507,7 +6519,7 @@
         <v>13</v>
       </c>
       <c r="AD44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -6515,7 +6527,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -6524,7 +6536,7 @@
         <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45">
         <v>13</v>
@@ -6607,7 +6619,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
         <v>31</v>
@@ -6691,7 +6703,7 @@
         <v>10</v>
       </c>
       <c r="AD46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:30">
@@ -6699,7 +6711,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
         <v>35</v>
@@ -6783,7 +6795,7 @@
         <v>32</v>
       </c>
       <c r="AD47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -6791,7 +6803,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
         <v>31</v>
@@ -6800,7 +6812,7 @@
         <v>26</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -6875,7 +6887,7 @@
         <v>2</v>
       </c>
       <c r="AD48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -6883,7 +6895,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
         <v>59</v>
@@ -6967,7 +6979,7 @@
         <v>24</v>
       </c>
       <c r="AD49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -6975,7 +6987,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -6984,7 +6996,7 @@
         <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F50">
         <v>6</v>
@@ -7059,7 +7071,7 @@
         <v>6</v>
       </c>
       <c r="AD50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -7067,7 +7079,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s">
         <v>31</v>
@@ -7151,7 +7163,7 @@
         <v>32</v>
       </c>
       <c r="AD51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -7159,7 +7171,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -7243,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="AD52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:30">
@@ -7251,7 +7263,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
         <v>31</v>
@@ -7260,7 +7272,7 @@
         <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F53">
         <v>9</v>
@@ -7335,7 +7347,7 @@
         <v>25</v>
       </c>
       <c r="AD53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -7343,7 +7355,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s">
         <v>59</v>
@@ -7427,7 +7439,7 @@
         <v>20</v>
       </c>
       <c r="AD54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -7435,7 +7447,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C55" t="s">
         <v>59</v>
@@ -7519,7 +7531,7 @@
         <v>19</v>
       </c>
       <c r="AD55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -7527,7 +7539,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C56" t="s">
         <v>35</v>
@@ -7611,7 +7623,7 @@
         <v>4</v>
       </c>
       <c r="AD56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -7619,7 +7631,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
         <v>31</v>
@@ -7628,7 +7640,7 @@
         <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F57">
         <v>6</v>
@@ -7697,7 +7709,7 @@
         <v>1</v>
       </c>
       <c r="AD57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:30">
@@ -7705,7 +7717,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s">
         <v>31</v>
@@ -7789,7 +7801,7 @@
         <v>24</v>
       </c>
       <c r="AD58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:30">
@@ -7797,7 +7809,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C59" t="s">
         <v>59</v>
@@ -7881,7 +7893,7 @@
         <v>30</v>
       </c>
       <c r="AD59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -7889,7 +7901,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C60" t="s">
         <v>31</v>
@@ -7973,7 +7985,7 @@
         <v>11</v>
       </c>
       <c r="AD60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:30">
@@ -7981,7 +7993,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C61" t="s">
         <v>31</v>
@@ -7990,7 +8002,7 @@
         <v>22</v>
       </c>
       <c r="E61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F61">
         <v>8</v>
@@ -8065,7 +8077,7 @@
         <v>19</v>
       </c>
       <c r="AD61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:30">
@@ -8073,7 +8085,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C62" t="s">
         <v>31</v>
@@ -8082,7 +8094,7 @@
         <v>22</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F62">
         <v>12</v>
@@ -8157,7 +8169,7 @@
         <v>33</v>
       </c>
       <c r="AD62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:30">
@@ -8165,7 +8177,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
         <v>35</v>
@@ -8246,7 +8258,7 @@
         <v>8</v>
       </c>
       <c r="AD63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:30">
@@ -8254,7 +8266,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C64" t="s">
         <v>31</v>
@@ -8338,7 +8350,7 @@
         <v>5</v>
       </c>
       <c r="AD64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -8346,7 +8358,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s">
         <v>59</v>
@@ -8355,7 +8367,7 @@
         <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F65">
         <v>5</v>
@@ -8430,7 +8442,7 @@
         <v>1</v>
       </c>
       <c r="AD65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -8438,7 +8450,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s">
         <v>35</v>
@@ -8447,7 +8459,7 @@
         <v>22</v>
       </c>
       <c r="E66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F66">
         <v>12</v>
@@ -8522,7 +8534,7 @@
         <v>9</v>
       </c>
       <c r="AD66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -8530,7 +8542,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s">
         <v>39</v>
@@ -8539,7 +8551,7 @@
         <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F67">
         <v>4</v>
@@ -8614,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="AD67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -8622,7 +8634,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C68" t="s">
         <v>31</v>
@@ -8631,7 +8643,7 @@
         <v>27</v>
       </c>
       <c r="E68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F68">
         <v>9</v>
@@ -8706,7 +8718,7 @@
         <v>13</v>
       </c>
       <c r="AD68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:30">
@@ -8714,7 +8726,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C69" t="s">
         <v>35</v>
@@ -8723,7 +8735,7 @@
         <v>26</v>
       </c>
       <c r="E69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F69">
         <v>12</v>
@@ -8798,7 +8810,7 @@
         <v>12</v>
       </c>
       <c r="AD69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -8806,7 +8818,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C70" t="s">
         <v>31</v>
@@ -8890,7 +8902,7 @@
         <v>8</v>
       </c>
       <c r="AD70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -8898,7 +8910,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
         <v>31</v>
@@ -8979,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="AD71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:30">
@@ -8987,7 +8999,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C72" t="s">
         <v>31</v>
@@ -8996,7 +9008,7 @@
         <v>29</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F72">
         <v>10</v>
@@ -9079,7 +9091,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C73" t="s">
         <v>35</v>
@@ -9088,7 +9100,7 @@
         <v>37</v>
       </c>
       <c r="E73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F73">
         <v>9</v>
@@ -9163,7 +9175,7 @@
         <v>13</v>
       </c>
       <c r="AD73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:30">
@@ -9171,7 +9183,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C74" t="s">
         <v>31</v>
@@ -9180,7 +9192,7 @@
         <v>25</v>
       </c>
       <c r="E74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F74">
         <v>13</v>
@@ -9255,7 +9267,7 @@
         <v>10</v>
       </c>
       <c r="AD74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -9263,7 +9275,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C75" t="s">
         <v>35</v>
@@ -9347,7 +9359,7 @@
         <v>31</v>
       </c>
       <c r="AD75" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -9355,7 +9367,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C76" t="s">
         <v>39</v>
@@ -9436,7 +9448,7 @@
         <v>33</v>
       </c>
       <c r="AD76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:30">
@@ -9444,10 +9456,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" t="s">
         <v>191</v>
-      </c>
-      <c r="C77" t="s">
-        <v>192</v>
       </c>
       <c r="D77">
         <v>32</v>
@@ -9528,7 +9540,7 @@
         <v>4</v>
       </c>
       <c r="AD77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -9536,7 +9548,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C78" t="s">
         <v>59</v>
@@ -9620,7 +9632,7 @@
         <v>19</v>
       </c>
       <c r="AD78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:30">
@@ -9628,7 +9640,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C79" t="s">
         <v>39</v>
@@ -9712,7 +9724,7 @@
         <v>40</v>
       </c>
       <c r="AD79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:30">
@@ -9720,7 +9732,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
         <v>35</v>
@@ -9804,7 +9816,7 @@
         <v>17</v>
       </c>
       <c r="AD80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:30">
@@ -9812,7 +9824,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C81" t="s">
         <v>59</v>
@@ -9896,7 +9908,7 @@
         <v>5</v>
       </c>
       <c r="AD81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -9904,7 +9916,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C82" t="s">
         <v>39</v>
@@ -9913,7 +9925,7 @@
         <v>25</v>
       </c>
       <c r="E82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F82">
         <v>13</v>
@@ -9988,7 +10000,7 @@
         <v>41</v>
       </c>
       <c r="AD82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:30">
@@ -9996,7 +10008,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
         <v>39</v>
@@ -10005,7 +10017,7 @@
         <v>36</v>
       </c>
       <c r="E83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F83">
         <v>3</v>
@@ -10077,7 +10089,7 @@
         <v>10</v>
       </c>
       <c r="AD83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:30">
@@ -10085,7 +10097,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C84" t="s">
         <v>59</v>
@@ -10094,7 +10106,7 @@
         <v>31</v>
       </c>
       <c r="E84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F84">
         <v>3</v>
@@ -10169,7 +10181,7 @@
         <v>6</v>
       </c>
       <c r="AD84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -10177,7 +10189,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -10258,7 +10270,7 @@
         <v>1</v>
       </c>
       <c r="AD85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -10266,7 +10278,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -10350,7 +10362,7 @@
         <v>16</v>
       </c>
       <c r="AD86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:30">
@@ -10358,7 +10370,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" t="s">
         <v>31</v>
@@ -10367,7 +10379,7 @@
         <v>27</v>
       </c>
       <c r="E87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F87">
         <v>11</v>
@@ -10442,7 +10454,7 @@
         <v>22</v>
       </c>
       <c r="AD87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -10450,7 +10462,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C88" t="s">
         <v>31</v>
@@ -10459,7 +10471,7 @@
         <v>26</v>
       </c>
       <c r="E88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F88">
         <v>12</v>
@@ -10534,7 +10546,7 @@
         <v>23</v>
       </c>
       <c r="AD88" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -10542,7 +10554,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C89" t="s">
         <v>39</v>
@@ -10626,7 +10638,7 @@
         <v>39</v>
       </c>
       <c r="AD89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -10634,7 +10646,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C90" t="s">
         <v>35</v>
@@ -10726,7 +10738,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C91" t="s">
         <v>35</v>
@@ -10810,7 +10822,7 @@
         <v>25</v>
       </c>
       <c r="AD91" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:30">
@@ -10818,7 +10830,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C92" t="s">
         <v>31</v>
@@ -10902,7 +10914,7 @@
         <v>11</v>
       </c>
       <c r="AD92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -10910,7 +10922,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C93" t="s">
         <v>35</v>
@@ -10919,7 +10931,7 @@
         <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F93">
         <v>10</v>
@@ -11002,7 +11014,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C94" t="s">
         <v>59</v>
@@ -11011,7 +11023,7 @@
         <v>28</v>
       </c>
       <c r="E94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F94">
         <v>13</v>
@@ -11086,7 +11098,7 @@
         <v>45</v>
       </c>
       <c r="AD94" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -11094,7 +11106,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C95" t="s">
         <v>31</v>
@@ -11178,7 +11190,7 @@
         <v>29</v>
       </c>
       <c r="AD95" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:30">
@@ -11186,7 +11198,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C96" t="s">
         <v>59</v>
@@ -11270,7 +11282,7 @@
         <v>23</v>
       </c>
       <c r="AD96" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -11278,7 +11290,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C97" t="s">
         <v>31</v>
@@ -11362,7 +11374,7 @@
         <v>7</v>
       </c>
       <c r="AD97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -11370,7 +11382,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C98" t="s">
         <v>59</v>
@@ -11454,7 +11466,7 @@
         <v>34</v>
       </c>
       <c r="AD98" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -11462,7 +11474,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -11546,7 +11558,7 @@
         <v>23</v>
       </c>
       <c r="AD99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -11554,7 +11566,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C100" t="s">
         <v>31</v>
@@ -11638,7 +11650,7 @@
         <v>20</v>
       </c>
       <c r="AD100" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:30">
@@ -11646,7 +11658,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C101" t="s">
         <v>35</v>
@@ -11655,7 +11667,7 @@
         <v>30</v>
       </c>
       <c r="E101" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F101">
         <v>12</v>
@@ -11730,7 +11742,7 @@
         <v>28</v>
       </c>
       <c r="AD101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:30">
@@ -11738,7 +11750,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C102" t="s">
         <v>31</v>
@@ -11822,7 +11834,7 @@
         <v>6</v>
       </c>
       <c r="AD102" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -11830,7 +11842,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C103" t="s">
         <v>39</v>
@@ -11839,7 +11851,7 @@
         <v>25</v>
       </c>
       <c r="E103" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F103">
         <v>9</v>
@@ -11914,7 +11926,7 @@
         <v>25</v>
       </c>
       <c r="AD103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -11922,7 +11934,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C104" t="s">
         <v>39</v>
@@ -12003,7 +12015,7 @@
         <v>38</v>
       </c>
       <c r="AD104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -12011,7 +12023,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C105" t="s">
         <v>39</v>
@@ -12095,7 +12107,7 @@
         <v>30</v>
       </c>
       <c r="AD105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -12103,7 +12115,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -12112,7 +12124,7 @@
         <v>24</v>
       </c>
       <c r="E106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F106">
         <v>9</v>
@@ -12187,7 +12199,7 @@
         <v>13</v>
       </c>
       <c r="AD106" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:30">
@@ -12195,7 +12207,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C107" t="s">
         <v>35</v>
@@ -12279,7 +12291,7 @@
         <v>3</v>
       </c>
       <c r="AD107" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:30">
@@ -12287,7 +12299,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C108" t="s">
         <v>59</v>
@@ -12296,7 +12308,7 @@
         <v>33</v>
       </c>
       <c r="E108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -12371,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="AD108" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:30">
@@ -12379,7 +12391,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C109" t="s">
         <v>31</v>
@@ -12463,7 +12475,7 @@
         <v>31</v>
       </c>
       <c r="AD109" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:30">
@@ -12471,16 +12483,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C110" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D110">
         <v>22</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -12549,7 +12561,7 @@
         <v>2</v>
       </c>
       <c r="AD110" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:30">
@@ -12557,7 +12569,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -12566,7 +12578,7 @@
         <v>22</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F111">
         <v>9</v>
@@ -12638,7 +12650,7 @@
         <v>9</v>
       </c>
       <c r="AD111" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:30">
@@ -12646,7 +12658,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C112" t="s">
         <v>31</v>
@@ -12730,7 +12742,7 @@
         <v>21</v>
       </c>
       <c r="AD112" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:30">
@@ -12738,7 +12750,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C113" t="s">
         <v>39</v>
@@ -12747,7 +12759,7 @@
         <v>29</v>
       </c>
       <c r="E113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F113">
         <v>13</v>
@@ -12822,7 +12834,7 @@
         <v>25</v>
       </c>
       <c r="AD113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:30">
@@ -12830,7 +12842,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C114" t="s">
         <v>35</v>
@@ -12914,7 +12926,7 @@
         <v>39</v>
       </c>
       <c r="AD114" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:30">
@@ -12922,7 +12934,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C115" t="s">
         <v>31</v>
@@ -13006,7 +13018,7 @@
         <v>19</v>
       </c>
       <c r="AD115" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:30">
@@ -13014,7 +13026,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -13023,7 +13035,7 @@
         <v>19</v>
       </c>
       <c r="E116" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F116">
         <v>12</v>
@@ -13098,7 +13110,7 @@
         <v>27</v>
       </c>
       <c r="AD116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -13106,7 +13118,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C117" t="s">
         <v>31</v>
@@ -13190,7 +13202,7 @@
         <v>6</v>
       </c>
       <c r="AD117" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="1:30">
@@ -13198,7 +13210,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C118" t="s">
         <v>31</v>
@@ -13207,7 +13219,7 @@
         <v>24</v>
       </c>
       <c r="E118" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F118">
         <v>12</v>
@@ -13282,7 +13294,7 @@
         <v>22</v>
       </c>
       <c r="AD118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" spans="1:30">
@@ -13290,7 +13302,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C119" t="s">
         <v>35</v>
@@ -13374,7 +13386,7 @@
         <v>23</v>
       </c>
       <c r="AD119" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:30">
@@ -13382,7 +13394,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C120" t="s">
         <v>39</v>
@@ -13391,7 +13403,7 @@
         <v>25</v>
       </c>
       <c r="E120" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F120">
         <v>12</v>
@@ -13466,7 +13478,7 @@
         <v>47</v>
       </c>
       <c r="AD120" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -13474,7 +13486,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -13558,7 +13570,7 @@
         <v>36</v>
       </c>
       <c r="AD121" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -13566,7 +13578,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C122" t="s">
         <v>35</v>
@@ -13647,7 +13659,7 @@
         <v>6</v>
       </c>
       <c r="AD122" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="123" spans="1:30">
@@ -13655,7 +13667,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -13664,7 +13676,7 @@
         <v>30</v>
       </c>
       <c r="E123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F123">
         <v>13</v>
@@ -13739,7 +13751,7 @@
         <v>17</v>
       </c>
       <c r="AD123" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:30">
@@ -13747,7 +13759,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -13756,7 +13768,7 @@
         <v>22</v>
       </c>
       <c r="E124" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -13831,7 +13843,7 @@
         <v>1</v>
       </c>
       <c r="AD124" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125" spans="1:30">
@@ -13839,7 +13851,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C125" t="s">
         <v>31</v>
@@ -13923,7 +13935,7 @@
         <v>11</v>
       </c>
       <c r="AD125" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="126" spans="1:30">
@@ -13931,7 +13943,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C126" t="s">
         <v>39</v>
@@ -13940,7 +13952,7 @@
         <v>24</v>
       </c>
       <c r="E126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F126">
         <v>14</v>
@@ -14015,7 +14027,7 @@
         <v>52</v>
       </c>
       <c r="AD126" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="127" spans="1:30">
@@ -14023,7 +14035,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C127" t="s">
         <v>59</v>
@@ -14107,7 +14119,7 @@
         <v>30</v>
       </c>
       <c r="AD127" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -14115,7 +14127,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -14196,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="AD128" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -14204,7 +14216,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C129" t="s">
         <v>31</v>
@@ -14213,7 +14225,7 @@
         <v>21</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F129">
         <v>8</v>
@@ -14285,7 +14297,7 @@
         <v>5</v>
       </c>
       <c r="AD129" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -14293,7 +14305,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C130" t="s">
         <v>31</v>
@@ -14385,7 +14397,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C131" t="s">
         <v>35</v>
@@ -14469,7 +14481,7 @@
         <v>23</v>
       </c>
       <c r="AD131" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -14477,7 +14489,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -14558,7 +14570,7 @@
         <v>0</v>
       </c>
       <c r="AD132" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:30">
@@ -14566,7 +14578,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C133" t="s">
         <v>39</v>
@@ -14658,7 +14670,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C134" t="s">
         <v>39</v>
@@ -14739,7 +14751,7 @@
         <v>15</v>
       </c>
       <c r="AD134" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="135" spans="1:30">
@@ -14747,7 +14759,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C135" t="s">
         <v>35</v>
@@ -14831,7 +14843,7 @@
         <v>6</v>
       </c>
       <c r="AD135" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="136" spans="1:30">
@@ -14839,7 +14851,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C136" t="s">
         <v>31</v>
@@ -14923,7 +14935,7 @@
         <v>33</v>
       </c>
       <c r="AD136" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="137" spans="1:30">
@@ -14931,7 +14943,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C137" t="s">
         <v>31</v>
@@ -14940,7 +14952,7 @@
         <v>25</v>
       </c>
       <c r="E137" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F137">
         <v>10</v>
@@ -15015,7 +15027,7 @@
         <v>10</v>
       </c>
       <c r="AD137" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -15023,7 +15035,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C138" t="s">
         <v>59</v>
@@ -15032,7 +15044,7 @@
         <v>25</v>
       </c>
       <c r="E138" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F138">
         <v>12</v>
@@ -15107,7 +15119,7 @@
         <v>37</v>
       </c>
       <c r="AD138" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -15115,7 +15127,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C139" t="s">
         <v>35</v>
@@ -15199,7 +15211,7 @@
         <v>30</v>
       </c>
       <c r="AD139" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="140" spans="1:30">
@@ -15207,7 +15219,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C140" t="s">
         <v>31</v>
@@ -15291,7 +15303,7 @@
         <v>30</v>
       </c>
       <c r="AD140" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141" spans="1:30">
@@ -15299,7 +15311,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C141" t="s">
         <v>35</v>
@@ -15308,7 +15320,7 @@
         <v>21</v>
       </c>
       <c r="E141" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F141">
         <v>13</v>
@@ -15383,7 +15395,7 @@
         <v>33</v>
       </c>
       <c r="AD141" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -15391,7 +15403,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C142" t="s">
         <v>31</v>
@@ -15477,7 +15489,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C143" t="s">
         <v>35</v>
@@ -15486,7 +15498,7 @@
         <v>28</v>
       </c>
       <c r="E143" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F143">
         <v>9</v>
@@ -15561,7 +15573,7 @@
         <v>18</v>
       </c>
       <c r="AD143" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -15569,7 +15581,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C144" t="s">
         <v>39</v>
@@ -15578,7 +15590,7 @@
         <v>35</v>
       </c>
       <c r="E144" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -15650,7 +15662,7 @@
         <v>4</v>
       </c>
       <c r="AD144" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="145" spans="1:30">
@@ -15658,7 +15670,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C145" t="s">
         <v>31</v>
@@ -15667,7 +15679,7 @@
         <v>20</v>
       </c>
       <c r="E145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F145">
         <v>14</v>
@@ -15742,7 +15754,7 @@
         <v>40</v>
       </c>
       <c r="AD145" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -15750,7 +15762,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C146" t="s">
         <v>59</v>
@@ -15759,7 +15771,7 @@
         <v>30</v>
       </c>
       <c r="E146" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F146">
         <v>12</v>
@@ -15834,7 +15846,7 @@
         <v>27</v>
       </c>
       <c r="AD146" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -15842,7 +15854,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C147" t="s">
         <v>31</v>
@@ -15851,7 +15863,7 @@
         <v>27</v>
       </c>
       <c r="E147" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F147">
         <v>11</v>
@@ -15926,7 +15938,7 @@
         <v>20</v>
       </c>
       <c r="AD147" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -15934,7 +15946,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C148" t="s">
         <v>39</v>
@@ -16018,7 +16030,7 @@
         <v>29</v>
       </c>
       <c r="AD148" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -16026,7 +16038,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C149" t="s">
         <v>39</v>
@@ -16110,7 +16122,7 @@
         <v>16</v>
       </c>
       <c r="AD149" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -16118,7 +16130,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C150" t="s">
         <v>59</v>
@@ -16202,7 +16214,7 @@
         <v>20</v>
       </c>
       <c r="AD150" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -16210,7 +16222,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C151" t="s">
         <v>59</v>
@@ -16294,7 +16306,7 @@
         <v>34</v>
       </c>
       <c r="AD151" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="152" spans="1:30">
@@ -16302,7 +16314,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -16311,7 +16323,7 @@
         <v>33</v>
       </c>
       <c r="E152" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F152">
         <v>13</v>
@@ -16386,7 +16398,7 @@
         <v>38</v>
       </c>
       <c r="AD152" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -16394,7 +16406,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -16403,7 +16415,7 @@
         <v>20</v>
       </c>
       <c r="E153" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F153">
         <v>9</v>
@@ -16478,7 +16490,7 @@
         <v>20</v>
       </c>
       <c r="AD153" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -16486,7 +16498,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C154" t="s">
         <v>35</v>
@@ -16495,7 +16507,7 @@
         <v>20</v>
       </c>
       <c r="E154" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F154">
         <v>12</v>
@@ -16570,7 +16582,7 @@
         <v>25</v>
       </c>
       <c r="AD154" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -16578,7 +16590,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C155" t="s">
         <v>39</v>
@@ -16659,7 +16671,7 @@
         <v>39</v>
       </c>
       <c r="AD155" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -16667,7 +16679,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -16751,7 +16763,7 @@
         <v>34</v>
       </c>
       <c r="AD156" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="157" spans="1:30">
@@ -16759,7 +16771,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C157" t="s">
         <v>31</v>
@@ -16843,7 +16855,7 @@
         <v>19</v>
       </c>
       <c r="AD157" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="158" spans="1:30">
@@ -16851,7 +16863,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C158" t="s">
         <v>39</v>
@@ -16860,7 +16872,7 @@
         <v>34</v>
       </c>
       <c r="E158" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F158">
         <v>9</v>
@@ -16932,7 +16944,7 @@
         <v>22</v>
       </c>
       <c r="AD158" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="159" spans="1:30">
@@ -16940,7 +16952,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C159" t="s">
         <v>35</v>
@@ -17021,7 +17033,7 @@
         <v>2</v>
       </c>
       <c r="AD159" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="160" spans="1:30">
@@ -17029,7 +17041,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C160" t="s">
         <v>31</v>
@@ -17118,7 +17130,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -17202,7 +17214,7 @@
         <v>35</v>
       </c>
       <c r="AD161" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:30">
@@ -17210,7 +17222,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C162" t="s">
         <v>35</v>
@@ -17294,7 +17306,7 @@
         <v>23</v>
       </c>
       <c r="AD162" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -17302,7 +17314,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C163" t="s">
         <v>31</v>
@@ -17386,7 +17398,7 @@
         <v>27</v>
       </c>
       <c r="AD163" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -17394,7 +17406,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -17403,7 +17415,7 @@
         <v>28</v>
       </c>
       <c r="E164" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F164">
         <v>11</v>
@@ -17486,7 +17498,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C165" t="s">
         <v>31</v>
@@ -17570,7 +17582,7 @@
         <v>18</v>
       </c>
       <c r="AD165" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="166" spans="1:30">
@@ -17578,7 +17590,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -17662,7 +17674,7 @@
         <v>4</v>
       </c>
       <c r="AD166" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="167" spans="1:30">
@@ -17670,7 +17682,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -17679,7 +17691,7 @@
         <v>32</v>
       </c>
       <c r="E167" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F167">
         <v>12</v>
@@ -17754,7 +17766,7 @@
         <v>26</v>
       </c>
       <c r="AD167" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="168" spans="1:30">
@@ -17762,7 +17774,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -17771,7 +17783,7 @@
         <v>29</v>
       </c>
       <c r="E168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F168">
         <v>12</v>
@@ -17846,7 +17858,7 @@
         <v>38</v>
       </c>
       <c r="AD168" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -17854,7 +17866,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C169" t="s">
         <v>31</v>
@@ -17863,7 +17875,7 @@
         <v>26</v>
       </c>
       <c r="E169" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F169">
         <v>13</v>
@@ -17938,7 +17950,7 @@
         <v>39</v>
       </c>
       <c r="AD169" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -17946,7 +17958,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C170" t="s">
         <v>31</v>
@@ -18030,7 +18042,7 @@
         <v>28</v>
       </c>
       <c r="AD170" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -18038,7 +18050,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C171" t="s">
         <v>59</v>
@@ -18122,7 +18134,7 @@
         <v>10</v>
       </c>
       <c r="AD171" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="172" spans="1:30">
@@ -18130,7 +18142,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C172" t="s">
         <v>39</v>
@@ -18139,7 +18151,7 @@
         <v>25</v>
       </c>
       <c r="E172" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F172">
         <v>12</v>
@@ -18211,7 +18223,7 @@
         <v>34</v>
       </c>
       <c r="AD172" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -18219,7 +18231,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C173" t="s">
         <v>35</v>
@@ -18228,7 +18240,7 @@
         <v>35</v>
       </c>
       <c r="E173" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F173">
         <v>2</v>
@@ -18300,7 +18312,7 @@
         <v>1</v>
       </c>
       <c r="AD173" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="174" spans="1:30">
@@ -18308,7 +18320,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C174" t="s">
         <v>31</v>
@@ -18392,7 +18404,7 @@
         <v>30</v>
       </c>
       <c r="AD174" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="175" spans="1:30">
@@ -18400,7 +18412,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C175" t="s">
         <v>31</v>
@@ -18484,7 +18496,7 @@
         <v>39</v>
       </c>
       <c r="AD175" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -18492,7 +18504,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -18501,7 +18513,7 @@
         <v>26</v>
       </c>
       <c r="E176" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F176">
         <v>12</v>
@@ -18576,7 +18588,7 @@
         <v>21</v>
       </c>
       <c r="AD176" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -18584,7 +18596,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -18593,7 +18605,7 @@
         <v>24</v>
       </c>
       <c r="E177" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -18673,7 +18685,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C178" t="s">
         <v>35</v>
@@ -18757,7 +18769,7 @@
         <v>7</v>
       </c>
       <c r="AD178" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="179" spans="1:30">
@@ -18765,7 +18777,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C179" t="s">
         <v>31</v>
@@ -18774,7 +18786,7 @@
         <v>23</v>
       </c>
       <c r="E179" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F179">
         <v>13</v>
@@ -18849,7 +18861,7 @@
         <v>32</v>
       </c>
       <c r="AD179" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="180" spans="1:30">
@@ -18857,7 +18869,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -18941,7 +18953,7 @@
         <v>21</v>
       </c>
       <c r="AD180" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:30">
@@ -18949,7 +18961,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C181" t="s">
         <v>39</v>
@@ -19035,7 +19047,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C182" t="s">
         <v>59</v>
@@ -19044,7 +19056,7 @@
         <v>28</v>
       </c>
       <c r="E182" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F182">
         <v>12</v>
@@ -19119,7 +19131,7 @@
         <v>21</v>
       </c>
       <c r="AD182" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="183" spans="1:30">
@@ -19127,7 +19139,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C183" t="s">
         <v>39</v>
@@ -19211,7 +19223,7 @@
         <v>16</v>
       </c>
       <c r="AD183" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="184" spans="1:30">
@@ -19219,7 +19231,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -19311,7 +19323,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C185" t="s">
         <v>39</v>
@@ -19395,7 +19407,7 @@
         <v>29</v>
       </c>
       <c r="AD185" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -19403,7 +19415,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C186" t="s">
         <v>59</v>
@@ -19412,7 +19424,7 @@
         <v>23</v>
       </c>
       <c r="E186" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F186">
         <v>14</v>
@@ -19487,7 +19499,7 @@
         <v>26</v>
       </c>
       <c r="AD186" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="187" spans="1:30">
@@ -19495,7 +19507,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C187" t="s">
         <v>31</v>
@@ -19504,7 +19516,7 @@
         <v>25</v>
       </c>
       <c r="E187" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F187">
         <v>13</v>
@@ -19579,7 +19591,7 @@
         <v>33</v>
       </c>
       <c r="AD187" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -19587,7 +19599,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C188" t="s">
         <v>35</v>
@@ -19596,7 +19608,7 @@
         <v>32</v>
       </c>
       <c r="E188" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F188">
         <v>10</v>
@@ -19671,7 +19683,7 @@
         <v>27</v>
       </c>
       <c r="AD188" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="189" spans="1:30">
@@ -19679,7 +19691,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C189" t="s">
         <v>59</v>
@@ -19688,7 +19700,7 @@
         <v>27</v>
       </c>
       <c r="E189" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F189">
         <v>8</v>
@@ -19763,7 +19775,7 @@
         <v>11</v>
       </c>
       <c r="AD189" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="190" spans="1:30">
@@ -19771,7 +19783,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C190" t="s">
         <v>35</v>
@@ -19852,7 +19864,7 @@
         <v>2</v>
       </c>
       <c r="AD190" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191" spans="1:30">
@@ -19860,7 +19872,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C191" t="s">
         <v>31</v>
@@ -19869,7 +19881,7 @@
         <v>28</v>
       </c>
       <c r="E191" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F191">
         <v>12</v>
@@ -19944,7 +19956,7 @@
         <v>29</v>
       </c>
       <c r="AD191" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -19952,7 +19964,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C192" t="s">
         <v>31</v>
@@ -20036,7 +20048,7 @@
         <v>32</v>
       </c>
       <c r="AD192" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -20044,7 +20056,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C193" t="s">
         <v>59</v>
@@ -20053,7 +20065,7 @@
         <v>30</v>
       </c>
       <c r="E193" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -20121,7 +20133,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C194" t="s">
         <v>59</v>
@@ -20213,7 +20225,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C195" t="s">
         <v>39</v>
@@ -20294,7 +20306,7 @@
         <v>18</v>
       </c>
       <c r="AD195" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -20302,7 +20314,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C196" t="s">
         <v>31</v>
@@ -20311,7 +20323,7 @@
         <v>26</v>
       </c>
       <c r="E196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F196">
         <v>12</v>
@@ -20386,7 +20398,7 @@
         <v>30</v>
       </c>
       <c r="AD196" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -20394,7 +20406,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C197" t="s">
         <v>39</v>
@@ -20403,7 +20415,7 @@
         <v>32</v>
       </c>
       <c r="E197" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F197">
         <v>13</v>
@@ -20478,7 +20490,7 @@
         <v>23</v>
       </c>
       <c r="AD197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:30">
@@ -20486,7 +20498,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C198" t="s">
         <v>39</v>
@@ -20495,7 +20507,7 @@
         <v>33</v>
       </c>
       <c r="E198" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F198">
         <v>5</v>
@@ -20567,7 +20579,7 @@
         <v>18</v>
       </c>
       <c r="AD198" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:30">
@@ -20575,7 +20587,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C199" t="s">
         <v>31</v>
@@ -20659,7 +20671,7 @@
         <v>15</v>
       </c>
       <c r="AD199" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200" spans="1:30">
@@ -20667,7 +20679,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C200" t="s">
         <v>59</v>
@@ -20751,7 +20763,7 @@
         <v>21</v>
       </c>
       <c r="AD200" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="201" spans="1:30">
@@ -20759,7 +20771,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C201" t="s">
         <v>39</v>
@@ -20843,7 +20855,7 @@
         <v>43</v>
       </c>
       <c r="AD201" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="202" spans="1:30">
@@ -20851,7 +20863,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C202" t="s">
         <v>59</v>
@@ -20860,7 +20872,7 @@
         <v>35</v>
       </c>
       <c r="E202" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F202">
         <v>11</v>
@@ -20935,7 +20947,7 @@
         <v>15</v>
       </c>
       <c r="AD202" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="203" spans="1:30">
@@ -20943,7 +20955,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -21035,7 +21047,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C204" t="s">
         <v>59</v>
@@ -21119,7 +21131,7 @@
         <v>29</v>
       </c>
       <c r="AD204" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="205" spans="1:30">
@@ -21127,7 +21139,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C205" t="s">
         <v>31</v>
@@ -21136,7 +21148,7 @@
         <v>21</v>
       </c>
       <c r="E205" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F205">
         <v>9</v>
@@ -21211,7 +21223,7 @@
         <v>27</v>
       </c>
       <c r="AD205" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="206" spans="1:30">
@@ -21219,7 +21231,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C206" t="s">
         <v>35</v>
@@ -21228,7 +21240,7 @@
         <v>26</v>
       </c>
       <c r="E206" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F206">
         <v>12</v>
@@ -21303,7 +21315,7 @@
         <v>28</v>
       </c>
       <c r="AD206" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207" spans="1:30">
@@ -21311,7 +21323,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C207" t="s">
         <v>59</v>
@@ -21395,7 +21407,7 @@
         <v>17</v>
       </c>
       <c r="AD207" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="208" spans="1:30">
@@ -21403,7 +21415,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C208" t="s">
         <v>59</v>
@@ -21487,7 +21499,7 @@
         <v>18</v>
       </c>
       <c r="AD208" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="209" spans="1:30">
@@ -21495,7 +21507,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C209" t="s">
         <v>35</v>
@@ -21504,7 +21516,7 @@
         <v>20</v>
       </c>
       <c r="E209" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F209">
         <v>8</v>
@@ -21579,7 +21591,7 @@
         <v>11</v>
       </c>
       <c r="AD209" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -21587,7 +21599,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C210" t="s">
         <v>39</v>
@@ -21671,7 +21683,7 @@
         <v>41</v>
       </c>
       <c r="AD210" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="211" spans="1:30">
@@ -21679,7 +21691,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C211" t="s">
         <v>31</v>
@@ -21763,7 +21775,7 @@
         <v>31</v>
       </c>
       <c r="AD211" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -21771,7 +21783,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C212" t="s">
         <v>59</v>
@@ -21780,7 +21792,7 @@
         <v>23</v>
       </c>
       <c r="E212" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F212">
         <v>13</v>
@@ -21855,7 +21867,7 @@
         <v>15</v>
       </c>
       <c r="AD212" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -21863,7 +21875,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C213" t="s">
         <v>35</v>
@@ -21872,7 +21884,7 @@
         <v>28</v>
       </c>
       <c r="E213" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F213">
         <v>12</v>
@@ -21947,7 +21959,7 @@
         <v>40</v>
       </c>
       <c r="AD213" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -21955,7 +21967,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -21964,7 +21976,7 @@
         <v>34</v>
       </c>
       <c r="E214" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F214">
         <v>13</v>
@@ -22039,7 +22051,7 @@
         <v>25</v>
       </c>
       <c r="AD214" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -22047,7 +22059,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -22056,7 +22068,7 @@
         <v>31</v>
       </c>
       <c r="E215" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F215">
         <v>13</v>
@@ -22131,7 +22143,7 @@
         <v>33</v>
       </c>
       <c r="AD215" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="216" spans="1:30">
@@ -22139,7 +22151,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -22220,7 +22232,7 @@
         <v>3</v>
       </c>
       <c r="AD216" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="217" spans="1:30">
@@ -22228,7 +22240,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C217" t="s">
         <v>39</v>
@@ -22237,7 +22249,7 @@
         <v>31</v>
       </c>
       <c r="E217" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F217">
         <v>14</v>
@@ -22312,7 +22324,7 @@
         <v>33</v>
       </c>
       <c r="AD217" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -22320,7 +22332,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C218" t="s">
         <v>59</v>
@@ -22329,7 +22341,7 @@
         <v>22</v>
       </c>
       <c r="E218" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F218">
         <v>11</v>
@@ -22412,7 +22424,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C219" t="s">
         <v>35</v>
@@ -22496,7 +22508,7 @@
         <v>22</v>
       </c>
       <c r="AD219" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -22504,7 +22516,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C220" t="s">
         <v>59</v>
@@ -22513,7 +22525,7 @@
         <v>31</v>
       </c>
       <c r="E220" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F220">
         <v>6</v>
@@ -22588,7 +22600,7 @@
         <v>13</v>
       </c>
       <c r="AD220" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -22596,7 +22608,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C221" t="s">
         <v>39</v>
@@ -22680,7 +22692,7 @@
         <v>43</v>
       </c>
       <c r="AD221" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="222" spans="1:30">
@@ -22688,7 +22700,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C222" t="s">
         <v>39</v>
@@ -22697,7 +22709,7 @@
         <v>23</v>
       </c>
       <c r="E222" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F222">
         <v>13</v>
@@ -22777,7 +22789,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C223" t="s">
         <v>59</v>
@@ -22861,7 +22873,7 @@
         <v>16</v>
       </c>
       <c r="AD223" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="224" spans="1:30">
@@ -22869,7 +22881,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C224" t="s">
         <v>35</v>
@@ -22878,7 +22890,7 @@
         <v>22</v>
       </c>
       <c r="E224" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F224">
         <v>12</v>
@@ -22953,7 +22965,7 @@
         <v>12</v>
       </c>
       <c r="AD224" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="225" spans="1:30">
@@ -22961,7 +22973,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C225" t="s">
         <v>39</v>
@@ -22970,7 +22982,7 @@
         <v>30</v>
       </c>
       <c r="E225" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F225">
         <v>12</v>
@@ -23042,7 +23054,7 @@
         <v>35</v>
       </c>
       <c r="AD225" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="226" spans="1:30">
@@ -23050,7 +23062,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C226" t="s">
         <v>35</v>
@@ -23134,7 +23146,7 @@
         <v>24</v>
       </c>
       <c r="AD226" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="227" spans="1:30">
@@ -23142,7 +23154,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -23223,7 +23235,7 @@
         <v>2</v>
       </c>
       <c r="AD227" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -23231,7 +23243,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C228" t="s">
         <v>39</v>
@@ -23240,7 +23252,7 @@
         <v>26</v>
       </c>
       <c r="E228" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F228">
         <v>14</v>
@@ -23315,7 +23327,7 @@
         <v>39</v>
       </c>
       <c r="AD228" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="229" spans="1:30">
@@ -23323,7 +23335,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C229" t="s">
         <v>31</v>
@@ -23332,7 +23344,7 @@
         <v>22</v>
       </c>
       <c r="E229" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F229">
         <v>3</v>
@@ -23404,7 +23416,7 @@
         <v>2</v>
       </c>
       <c r="AD229" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="230" spans="1:30">
@@ -23412,7 +23424,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -23496,7 +23508,7 @@
         <v>38</v>
       </c>
       <c r="AD230" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="231" spans="1:30">
@@ -23504,7 +23516,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -23513,7 +23525,7 @@
         <v>27</v>
       </c>
       <c r="E231" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F231">
         <v>12</v>
@@ -23588,7 +23600,7 @@
         <v>18</v>
       </c>
       <c r="AD231" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="232" spans="1:30">
@@ -23596,7 +23608,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -23605,7 +23617,7 @@
         <v>19</v>
       </c>
       <c r="E232" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F232">
         <v>7</v>
@@ -23680,7 +23692,7 @@
         <v>10</v>
       </c>
       <c r="AD232" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="233" spans="1:30">
@@ -23688,7 +23700,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C233" t="s">
         <v>31</v>
@@ -23697,7 +23709,7 @@
         <v>21</v>
       </c>
       <c r="E233" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F233">
         <v>7</v>
@@ -23772,7 +23784,7 @@
         <v>4</v>
       </c>
       <c r="AD233" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="234" spans="1:30">
@@ -23780,7 +23792,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -23789,7 +23801,7 @@
         <v>23</v>
       </c>
       <c r="E234" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F234">
         <v>4</v>
@@ -23866,7 +23878,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -23875,7 +23887,7 @@
         <v>37</v>
       </c>
       <c r="E235" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F235">
         <v>11</v>
@@ -23950,7 +23962,7 @@
         <v>18</v>
       </c>
       <c r="AD235" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="236" spans="1:30">
@@ -23958,7 +23970,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C236" t="s">
         <v>39</v>
@@ -23967,7 +23979,7 @@
         <v>29</v>
       </c>
       <c r="E236" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F236">
         <v>7</v>
@@ -24036,7 +24048,7 @@
         <v>15</v>
       </c>
       <c r="AD236" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="237" spans="1:30">
@@ -24044,7 +24056,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C237" t="s">
         <v>59</v>
@@ -24128,7 +24140,7 @@
         <v>3</v>
       </c>
       <c r="AD237" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="238" spans="1:30">
@@ -24136,7 +24148,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C238" t="s">
         <v>59</v>
@@ -24145,7 +24157,7 @@
         <v>23</v>
       </c>
       <c r="E238" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F238">
         <v>13</v>
@@ -24220,7 +24232,7 @@
         <v>33</v>
       </c>
       <c r="AD238" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="239" spans="1:30">
@@ -24228,7 +24240,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -24237,7 +24249,7 @@
         <v>22</v>
       </c>
       <c r="E239" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F239">
         <v>5</v>
@@ -24312,7 +24324,7 @@
         <v>6</v>
       </c>
       <c r="AD239" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -24320,7 +24332,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C240" t="s">
         <v>31</v>
@@ -24404,7 +24416,7 @@
         <v>27</v>
       </c>
       <c r="AD240" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -24412,7 +24424,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C241" t="s">
         <v>31</v>
@@ -24496,7 +24508,7 @@
         <v>35</v>
       </c>
       <c r="AD241" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="242" spans="1:30">
@@ -24504,7 +24516,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C242" t="s">
         <v>59</v>
@@ -24588,7 +24600,7 @@
         <v>12</v>
       </c>
       <c r="AD242" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="243" spans="1:30">
@@ -24596,7 +24608,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -24677,7 +24689,7 @@
         <v>3</v>
       </c>
       <c r="AD243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="244" spans="1:30">
@@ -24685,7 +24697,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C244" t="s">
         <v>31</v>
@@ -24694,7 +24706,7 @@
         <v>26</v>
       </c>
       <c r="E244" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F244">
         <v>4</v>
@@ -24769,7 +24781,7 @@
         <v>8</v>
       </c>
       <c r="AD244" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="245" spans="1:30">
@@ -24777,7 +24789,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C245" t="s">
         <v>39</v>
@@ -24861,7 +24873,7 @@
         <v>36</v>
       </c>
       <c r="AD245" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="246" spans="1:30">
@@ -24869,7 +24881,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C246" t="s">
         <v>59</v>
@@ -24953,7 +24965,7 @@
         <v>12</v>
       </c>
       <c r="AD246" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="247" spans="1:30">
@@ -24961,7 +24973,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C247" t="s">
         <v>39</v>
@@ -25045,7 +25057,7 @@
         <v>17</v>
       </c>
       <c r="AD247" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -25053,7 +25065,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -25062,7 +25074,7 @@
         <v>29</v>
       </c>
       <c r="E248" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F248">
         <v>4</v>
@@ -25137,7 +25149,7 @@
         <v>3</v>
       </c>
       <c r="AD248" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -25145,7 +25157,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C249" t="s">
         <v>59</v>
@@ -25229,7 +25241,7 @@
         <v>31</v>
       </c>
       <c r="AD249" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -25237,7 +25249,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C250" t="s">
         <v>35</v>
@@ -25321,7 +25333,7 @@
         <v>18</v>
       </c>
       <c r="AD250" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="251" spans="1:30">
@@ -25329,7 +25341,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C251" t="s">
         <v>35</v>
@@ -25413,7 +25425,7 @@
         <v>20</v>
       </c>
       <c r="AD251" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="252" spans="1:30">
@@ -25421,7 +25433,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C252" t="s">
         <v>35</v>
@@ -25430,7 +25442,7 @@
         <v>33</v>
       </c>
       <c r="E252" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F252">
         <v>4</v>
@@ -25502,7 +25514,7 @@
         <v>6</v>
       </c>
       <c r="AD252" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="253" spans="1:30">
@@ -25510,7 +25522,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C253" t="s">
         <v>31</v>
@@ -25519,7 +25531,7 @@
         <v>26</v>
       </c>
       <c r="E253" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -25596,7 +25608,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C254" t="s">
         <v>39</v>
@@ -25605,7 +25617,7 @@
         <v>22</v>
       </c>
       <c r="E254" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F254">
         <v>13</v>
@@ -25677,7 +25689,7 @@
         <v>30</v>
       </c>
       <c r="AD254" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="255" spans="1:30">
@@ -25685,7 +25697,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C255" t="s">
         <v>39</v>
@@ -25769,7 +25781,7 @@
         <v>28</v>
       </c>
       <c r="AD255" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="256" spans="1:30">
@@ -25777,7 +25789,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C256" t="s">
         <v>39</v>
@@ -25858,7 +25870,7 @@
         <v>14</v>
       </c>
       <c r="AD256" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="257" spans="1:30">
@@ -25866,7 +25878,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -25875,7 +25887,7 @@
         <v>30</v>
       </c>
       <c r="E257" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F257">
         <v>4</v>
@@ -25950,7 +25962,7 @@
         <v>14</v>
       </c>
       <c r="AD257" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="258" spans="1:30">
@@ -25958,7 +25970,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C258" t="s">
         <v>35</v>
@@ -26042,7 +26054,7 @@
         <v>30</v>
       </c>
       <c r="AD258" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="259" spans="1:30">
@@ -26050,7 +26062,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C259" t="s">
         <v>35</v>
@@ -26127,7 +26139,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C260" t="s">
         <v>59</v>
@@ -26216,7 +26228,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -26305,7 +26317,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -26389,7 +26401,7 @@
         <v>24</v>
       </c>
       <c r="AD262" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="263" spans="1:30">
@@ -26397,7 +26409,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C263" t="s">
         <v>35</v>
@@ -26481,7 +26493,7 @@
         <v>16</v>
       </c>
       <c r="AD263" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="264" spans="1:30">
@@ -26489,7 +26501,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C264" t="s">
         <v>31</v>
@@ -26498,7 +26510,7 @@
         <v>23</v>
       </c>
       <c r="E264" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -26566,7 +26578,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C265" t="s">
         <v>39</v>
@@ -26575,7 +26587,7 @@
         <v>32</v>
       </c>
       <c r="E265" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F265">
         <v>8</v>
@@ -26650,7 +26662,7 @@
         <v>24</v>
       </c>
       <c r="AD265" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="266" spans="1:30">
@@ -26658,7 +26670,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C266" t="s">
         <v>39</v>
@@ -26742,7 +26754,7 @@
         <v>6</v>
       </c>
       <c r="AD266" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="267" spans="1:30">
@@ -26750,7 +26762,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C267" t="s">
         <v>39</v>
@@ -26759,7 +26771,7 @@
         <v>30</v>
       </c>
       <c r="E267" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F267">
         <v>12</v>
@@ -26834,7 +26846,7 @@
         <v>24</v>
       </c>
       <c r="AD267" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="268" spans="1:30">
@@ -26842,7 +26854,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -26926,7 +26938,7 @@
         <v>11</v>
       </c>
       <c r="AD268" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="269" spans="1:30">
@@ -26934,7 +26946,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C269" t="s">
         <v>35</v>
@@ -26943,7 +26955,7 @@
         <v>24</v>
       </c>
       <c r="E269" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F269">
         <v>12</v>
@@ -27018,7 +27030,7 @@
         <v>13</v>
       </c>
       <c r="AD269" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="270" spans="1:30">
@@ -27026,7 +27038,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C270" t="s">
         <v>31</v>
@@ -27035,7 +27047,7 @@
         <v>32</v>
       </c>
       <c r="E270" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F270">
         <v>12</v>
@@ -27110,7 +27122,7 @@
         <v>30</v>
       </c>
       <c r="AD270" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="271" spans="1:30">
@@ -27118,7 +27130,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -27127,7 +27139,7 @@
         <v>32</v>
       </c>
       <c r="E271" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F271">
         <v>4</v>
@@ -27202,7 +27214,7 @@
         <v>8</v>
       </c>
       <c r="AD271" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="272" spans="1:30">
@@ -27210,7 +27222,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C272" t="s">
         <v>31</v>
@@ -27294,7 +27306,7 @@
         <v>27</v>
       </c>
       <c r="AD272" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="273" spans="1:30">
@@ -27302,7 +27314,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C273" t="s">
         <v>35</v>
@@ -27311,7 +27323,7 @@
         <v>26</v>
       </c>
       <c r="E273" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F273">
         <v>11</v>
@@ -27386,7 +27398,7 @@
         <v>10</v>
       </c>
       <c r="AD273" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="274" spans="1:30">
@@ -27394,7 +27406,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C274" t="s">
         <v>59</v>
@@ -27478,7 +27490,7 @@
         <v>22</v>
       </c>
       <c r="AD274" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="275" spans="1:30">
@@ -27486,7 +27498,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C275" t="s">
         <v>39</v>
@@ -27495,7 +27507,7 @@
         <v>31</v>
       </c>
       <c r="E275" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F275">
         <v>13</v>
@@ -27570,7 +27582,7 @@
         <v>36</v>
       </c>
       <c r="AD275" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="276" spans="1:30">
@@ -27578,7 +27590,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C276" t="s">
         <v>31</v>
@@ -27662,7 +27674,7 @@
         <v>37</v>
       </c>
       <c r="AD276" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="277" spans="1:30">
@@ -27670,7 +27682,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C277" t="s">
         <v>59</v>
@@ -27679,7 +27691,7 @@
         <v>26</v>
       </c>
       <c r="E277" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F277">
         <v>13</v>
@@ -27754,7 +27766,7 @@
         <v>28</v>
       </c>
       <c r="AD277" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="278" spans="1:30">
@@ -27762,7 +27774,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C278" t="s">
         <v>31</v>
@@ -27771,7 +27783,7 @@
         <v>25</v>
       </c>
       <c r="E278" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F278">
         <v>5</v>
@@ -27846,7 +27858,7 @@
         <v>3</v>
       </c>
       <c r="AD278" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="279" spans="1:30">
@@ -27854,7 +27866,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C279" t="s">
         <v>31</v>
@@ -27863,7 +27875,7 @@
         <v>27</v>
       </c>
       <c r="E279" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F279">
         <v>4</v>
@@ -27935,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="AD279" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="280" spans="1:30">
@@ -27943,7 +27955,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C280" t="s">
         <v>39</v>
@@ -27952,7 +27964,7 @@
         <v>32</v>
       </c>
       <c r="E280" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F280">
         <v>2</v>
@@ -28029,7 +28041,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C281" t="s">
         <v>35</v>
@@ -28110,7 +28122,7 @@
         <v>5</v>
       </c>
       <c r="AD281" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="282" spans="1:30">
@@ -28118,7 +28130,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -28202,7 +28214,7 @@
         <v>1</v>
       </c>
       <c r="AD282" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="283" spans="1:30">
@@ -28210,7 +28222,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C283" t="s">
         <v>59</v>
@@ -28294,7 +28306,7 @@
         <v>38</v>
       </c>
       <c r="AD283" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="284" spans="1:30">
@@ -28302,7 +28314,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C284" t="s">
         <v>59</v>
@@ -28386,7 +28398,7 @@
         <v>24</v>
       </c>
       <c r="AD284" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="285" spans="1:30">
@@ -28394,7 +28406,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C285" t="s">
         <v>59</v>
@@ -28403,7 +28415,7 @@
         <v>28</v>
       </c>
       <c r="E285" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F285">
         <v>8</v>
@@ -28478,7 +28490,7 @@
         <v>19</v>
       </c>
       <c r="AD285" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="286" spans="1:30">
@@ -28486,7 +28498,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C286" t="s">
         <v>35</v>
@@ -28570,7 +28582,7 @@
         <v>19</v>
       </c>
       <c r="AD286" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="287" spans="1:30">
@@ -28578,7 +28590,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -28662,7 +28674,7 @@
         <v>29</v>
       </c>
       <c r="AD287" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="288" spans="1:30">
@@ -28670,7 +28682,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -28679,7 +28691,7 @@
         <v>27</v>
       </c>
       <c r="E288" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F288">
         <v>11</v>
@@ -28754,7 +28766,7 @@
         <v>24</v>
       </c>
       <c r="AD288" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="289" spans="1:30">
@@ -28762,7 +28774,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C289" t="s">
         <v>31</v>
@@ -28846,7 +28858,7 @@
         <v>24</v>
       </c>
       <c r="AD289" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="290" spans="1:30">
@@ -28854,7 +28866,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C290" t="s">
         <v>31</v>
@@ -28940,7 +28952,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C291" t="s">
         <v>31</v>
@@ -29024,7 +29036,7 @@
         <v>27</v>
       </c>
       <c r="AD291" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="292" spans="1:30">
@@ -29032,7 +29044,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C292" t="s">
         <v>39</v>
@@ -29113,7 +29125,7 @@
         <v>3</v>
       </c>
       <c r="AD292" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="293" spans="1:30">
@@ -29121,7 +29133,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C293" t="s">
         <v>59</v>
@@ -29130,7 +29142,7 @@
         <v>29</v>
       </c>
       <c r="E293" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F293">
         <v>12</v>
@@ -29205,7 +29217,7 @@
         <v>33</v>
       </c>
       <c r="AD293" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="294" spans="1:30">
@@ -29213,7 +29225,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -29222,7 +29234,7 @@
         <v>29</v>
       </c>
       <c r="E294" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F294">
         <v>13</v>
@@ -29305,7 +29317,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -29314,7 +29326,7 @@
         <v>29</v>
       </c>
       <c r="E295" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F295">
         <v>11</v>
@@ -29389,7 +29401,7 @@
         <v>35</v>
       </c>
       <c r="AD295" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="296" spans="1:30">
@@ -29397,7 +29409,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C296" t="s">
         <v>35</v>
@@ -29481,7 +29493,7 @@
         <v>15</v>
       </c>
       <c r="AD296" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="297" spans="1:30">
@@ -29489,7 +29501,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C297" t="s">
         <v>35</v>
@@ -29498,7 +29510,7 @@
         <v>22</v>
       </c>
       <c r="E297" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F297">
         <v>7</v>
@@ -29573,7 +29585,7 @@
         <v>13</v>
       </c>
       <c r="AD297" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="298" spans="1:30">
@@ -29581,7 +29593,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C298" t="s">
         <v>35</v>
@@ -29665,7 +29677,7 @@
         <v>29</v>
       </c>
       <c r="AD298" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="299" spans="1:30">
@@ -29673,7 +29685,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C299" t="s">
         <v>31</v>
@@ -29757,7 +29769,7 @@
         <v>1</v>
       </c>
       <c r="AD299" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="300" spans="1:30">
@@ -29765,7 +29777,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -29774,7 +29786,7 @@
         <v>27</v>
       </c>
       <c r="E300" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F300">
         <v>8</v>
@@ -29849,7 +29861,7 @@
         <v>19</v>
       </c>
       <c r="AD300" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="301" spans="1:30">
@@ -29857,7 +29869,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C301" t="s">
         <v>59</v>
@@ -29866,7 +29878,7 @@
         <v>21</v>
       </c>
       <c r="E301" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F301">
         <v>6</v>
@@ -29941,7 +29953,7 @@
         <v>4</v>
       </c>
       <c r="AD301" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="302" spans="1:30">
@@ -29949,7 +29961,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C302" t="s">
         <v>59</v>
@@ -30030,7 +30042,7 @@
         <v>1</v>
       </c>
       <c r="AD302" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="303" spans="1:30">
@@ -30038,7 +30050,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C303" t="s">
         <v>39</v>
@@ -30047,7 +30059,7 @@
         <v>26</v>
       </c>
       <c r="E303" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F303">
         <v>10</v>
@@ -30122,7 +30134,7 @@
         <v>29</v>
       </c>
       <c r="AD303" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="304" spans="1:30">
@@ -30130,7 +30142,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C304" t="s">
         <v>35</v>
@@ -30214,7 +30226,7 @@
         <v>11</v>
       </c>
       <c r="AD304" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="305" spans="1:30">
@@ -30222,7 +30234,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -30306,7 +30318,7 @@
         <v>12</v>
       </c>
       <c r="AD305" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="306" spans="1:30">
@@ -30314,7 +30326,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C306" t="s">
         <v>39</v>
@@ -30395,7 +30407,7 @@
         <v>35</v>
       </c>
       <c r="AD306" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="307" spans="1:30">
@@ -30403,7 +30415,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C307" t="s">
         <v>35</v>
@@ -30412,7 +30424,7 @@
         <v>20</v>
       </c>
       <c r="E307" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F307">
         <v>14</v>
@@ -30487,7 +30499,7 @@
         <v>40</v>
       </c>
       <c r="AD307" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="308" spans="1:30">
@@ -30495,7 +30507,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C308" t="s">
         <v>59</v>
@@ -30504,7 +30516,7 @@
         <v>28</v>
       </c>
       <c r="E308" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F308">
         <v>5</v>
@@ -30579,7 +30591,7 @@
         <v>3</v>
       </c>
       <c r="AD308" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="309" spans="1:30">
@@ -30587,7 +30599,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C309" t="s">
         <v>39</v>
@@ -30671,7 +30683,7 @@
         <v>40</v>
       </c>
       <c r="AD309" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="310" spans="1:30">
@@ -30679,7 +30691,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C310" t="s">
         <v>31</v>
@@ -30688,7 +30700,7 @@
         <v>26</v>
       </c>
       <c r="E310" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F310">
         <v>8</v>
@@ -30763,7 +30775,7 @@
         <v>3</v>
       </c>
       <c r="AD310" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="311" spans="1:30">
@@ -30771,7 +30783,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C311" t="s">
         <v>59</v>
@@ -30855,7 +30867,7 @@
         <v>19</v>
       </c>
       <c r="AD311" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="312" spans="1:30">
@@ -30863,7 +30875,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C312" t="s">
         <v>39</v>
@@ -30947,7 +30959,7 @@
         <v>10</v>
       </c>
       <c r="AD312" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="313" spans="1:30">
@@ -30955,7 +30967,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -30964,7 +30976,7 @@
         <v>24</v>
       </c>
       <c r="E313" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F313">
         <v>9</v>
@@ -31039,7 +31051,7 @@
         <v>8</v>
       </c>
       <c r="AD313" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="314" spans="1:30">
@@ -31047,7 +31059,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C314" t="s">
         <v>39</v>
@@ -31056,7 +31068,7 @@
         <v>23</v>
       </c>
       <c r="E314" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F314">
         <v>7</v>
@@ -31128,7 +31140,7 @@
         <v>10</v>
       </c>
       <c r="AD314" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="315" spans="1:30">
@@ -31136,7 +31148,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C315" t="s">
         <v>35</v>
@@ -31220,7 +31232,7 @@
         <v>22</v>
       </c>
       <c r="AD315" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="316" spans="1:30">
@@ -31228,7 +31240,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C316" t="s">
         <v>31</v>
@@ -31237,7 +31249,7 @@
         <v>20</v>
       </c>
       <c r="E316" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F316">
         <v>11</v>
@@ -31312,7 +31324,7 @@
         <v>26</v>
       </c>
       <c r="AD316" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="317" spans="1:30">
@@ -31320,7 +31332,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C317" t="s">
         <v>31</v>
@@ -31404,7 +31416,7 @@
         <v>32</v>
       </c>
       <c r="AD317" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="318" spans="1:30">
@@ -31412,7 +31424,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -31496,7 +31508,7 @@
         <v>28</v>
       </c>
       <c r="AD318" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="319" spans="1:30">
@@ -31504,7 +31516,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C319" t="s">
         <v>59</v>
@@ -31513,7 +31525,7 @@
         <v>23</v>
       </c>
       <c r="E319" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F319">
         <v>11</v>
@@ -31596,7 +31608,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C320" t="s">
         <v>59</v>
@@ -31605,7 +31617,7 @@
         <v>23</v>
       </c>
       <c r="E320" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F320">
         <v>12</v>
@@ -31680,7 +31692,7 @@
         <v>28</v>
       </c>
       <c r="AD320" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="321" spans="1:30">
@@ -31688,7 +31700,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C321" t="s">
         <v>39</v>
@@ -31697,7 +31709,7 @@
         <v>34</v>
       </c>
       <c r="E321" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F321">
         <v>12</v>
@@ -31769,7 +31781,7 @@
         <v>31</v>
       </c>
       <c r="AD321" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="322" spans="1:30">
@@ -31777,7 +31789,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -31861,7 +31873,7 @@
         <v>24</v>
       </c>
       <c r="AD322" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="323" spans="1:30">
@@ -31869,7 +31881,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C323" t="s">
         <v>35</v>
@@ -31953,7 +31965,7 @@
         <v>14</v>
       </c>
       <c r="AD323" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="324" spans="1:30">
@@ -31961,7 +31973,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C324" t="s">
         <v>59</v>
@@ -32042,7 +32054,7 @@
         <v>7</v>
       </c>
       <c r="AD324" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="325" spans="1:30">
@@ -32050,7 +32062,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -32134,7 +32146,7 @@
         <v>16</v>
       </c>
       <c r="AD325" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="326" spans="1:30">
@@ -32142,7 +32154,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C326" t="s">
         <v>35</v>
@@ -32226,7 +32238,7 @@
         <v>29</v>
       </c>
       <c r="AD326" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="327" spans="1:30">
@@ -32234,7 +32246,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C327" t="s">
         <v>35</v>
@@ -32318,7 +32330,7 @@
         <v>24</v>
       </c>
       <c r="AD327" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="328" spans="1:30">
@@ -32326,7 +32338,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C328" t="s">
         <v>35</v>
@@ -32335,7 +32347,7 @@
         <v>24</v>
       </c>
       <c r="E328" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F328">
         <v>5</v>
@@ -32410,7 +32422,7 @@
         <v>14</v>
       </c>
       <c r="AD328" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="329" spans="1:30">
@@ -32418,7 +32430,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C329" t="s">
         <v>31</v>
@@ -32502,7 +32514,7 @@
         <v>0</v>
       </c>
       <c r="AD329" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="330" spans="1:30">
@@ -32510,7 +32522,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C330" t="s">
         <v>39</v>
@@ -32594,7 +32606,7 @@
         <v>38</v>
       </c>
       <c r="AD330" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="331" spans="1:30">
@@ -32602,7 +32614,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C331" t="s">
         <v>39</v>
@@ -32683,7 +32695,7 @@
         <v>9</v>
       </c>
       <c r="AD331" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="332" spans="1:30">
@@ -32691,7 +32703,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C332" t="s">
         <v>39</v>
@@ -32772,7 +32784,7 @@
         <v>8</v>
       </c>
       <c r="AD332" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="333" spans="1:30">
@@ -32780,7 +32792,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C333" t="s">
         <v>59</v>
@@ -32864,7 +32876,7 @@
         <v>9</v>
       </c>
       <c r="AD333" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="334" spans="1:30">
@@ -32872,7 +32884,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C334" t="s">
         <v>59</v>
@@ -32881,7 +32893,7 @@
         <v>25</v>
       </c>
       <c r="E334" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F334">
         <v>11</v>
@@ -32956,7 +32968,7 @@
         <v>18</v>
       </c>
       <c r="AD334" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="335" spans="1:30">
@@ -32964,7 +32976,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -33048,7 +33060,7 @@
         <v>14</v>
       </c>
       <c r="AD335" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="336" spans="1:30">
@@ -33056,7 +33068,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C336" t="s">
         <v>39</v>
@@ -33065,7 +33077,7 @@
         <v>27</v>
       </c>
       <c r="E336" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F336">
         <v>12</v>
@@ -33140,7 +33152,7 @@
         <v>31</v>
       </c>
       <c r="AD336" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="337" spans="1:30">
@@ -33148,7 +33160,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C337" t="s">
         <v>31</v>
@@ -33232,7 +33244,7 @@
         <v>17</v>
       </c>
       <c r="AD337" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="338" spans="1:30">
@@ -33240,7 +33252,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -33324,7 +33336,7 @@
         <v>26</v>
       </c>
       <c r="AD338" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="339" spans="1:30">
@@ -33332,7 +33344,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -33410,7 +33422,7 @@
         <v>0</v>
       </c>
       <c r="AD339" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="340" spans="1:30">
@@ -33418,7 +33430,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -33502,7 +33514,7 @@
         <v>8</v>
       </c>
       <c r="AD340" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="341" spans="1:30">
@@ -33510,7 +33522,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C341" t="s">
         <v>39</v>
@@ -33519,7 +33531,7 @@
         <v>24</v>
       </c>
       <c r="E341" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F341">
         <v>12</v>
@@ -33594,7 +33606,7 @@
         <v>39</v>
       </c>
       <c r="AD341" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="342" spans="1:30">
@@ -33602,7 +33614,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C342" t="s">
         <v>31</v>
@@ -33611,7 +33623,7 @@
         <v>34</v>
       </c>
       <c r="E342" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F342">
         <v>14</v>
@@ -33686,7 +33698,7 @@
         <v>18</v>
       </c>
       <c r="AD342" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="343" spans="1:30">
@@ -33694,7 +33706,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C343" t="s">
         <v>31</v>
@@ -33778,7 +33790,7 @@
         <v>41</v>
       </c>
       <c r="AD343" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="344" spans="1:30">
@@ -33786,7 +33798,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C344" t="s">
         <v>31</v>
@@ -33867,7 +33879,7 @@
         <v>4</v>
       </c>
       <c r="AD344" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="345" spans="1:30">
@@ -33875,7 +33887,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C345" t="s">
         <v>31</v>
@@ -33884,7 +33896,7 @@
         <v>26</v>
       </c>
       <c r="E345" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F345">
         <v>12</v>
@@ -33959,7 +33971,7 @@
         <v>29</v>
       </c>
       <c r="AD345" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="346" spans="1:30">
@@ -33967,7 +33979,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -34053,7 +34065,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C347" t="s">
         <v>59</v>
@@ -34062,7 +34074,7 @@
         <v>25</v>
       </c>
       <c r="E347" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F347">
         <v>11</v>
@@ -34137,7 +34149,7 @@
         <v>11</v>
       </c>
       <c r="AD347" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="348" spans="1:30">
@@ -34145,7 +34157,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C348" t="s">
         <v>31</v>
@@ -34154,7 +34166,7 @@
         <v>21</v>
       </c>
       <c r="E348" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F348">
         <v>7</v>
@@ -34226,7 +34238,7 @@
         <v>5</v>
       </c>
       <c r="AD348" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="349" spans="1:30">
@@ -34234,7 +34246,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C349" t="s">
         <v>39</v>
@@ -34243,7 +34255,7 @@
         <v>20</v>
       </c>
       <c r="E349" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F349">
         <v>12</v>
@@ -34315,7 +34327,7 @@
         <v>28</v>
       </c>
       <c r="AD349" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="350" spans="1:30">
@@ -34323,7 +34335,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C350" t="s">
         <v>35</v>
@@ -34332,7 +34344,7 @@
         <v>32</v>
       </c>
       <c r="E350" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F350">
         <v>10</v>
@@ -34407,7 +34419,7 @@
         <v>25</v>
       </c>
       <c r="AD350" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="351" spans="1:30">
@@ -34415,7 +34427,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C351" t="s">
         <v>35</v>
@@ -34424,7 +34436,7 @@
         <v>30</v>
       </c>
       <c r="E351" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F351">
         <v>12</v>
@@ -34499,7 +34511,7 @@
         <v>20</v>
       </c>
       <c r="AD351" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="352" spans="1:30">
@@ -34507,7 +34519,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C352" t="s">
         <v>31</v>
@@ -34591,7 +34603,7 @@
         <v>30</v>
       </c>
       <c r="AD352" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="353" spans="1:30">
@@ -34599,7 +34611,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C353" t="s">
         <v>35</v>
@@ -34608,7 +34620,7 @@
         <v>24</v>
       </c>
       <c r="E353" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F353">
         <v>13</v>
@@ -34683,7 +34695,7 @@
         <v>20</v>
       </c>
       <c r="AD353" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="354" spans="1:30">
@@ -34691,7 +34703,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C354" t="s">
         <v>35</v>
@@ -34775,7 +34787,7 @@
         <v>39</v>
       </c>
       <c r="AD354" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="355" spans="1:30">
@@ -34783,7 +34795,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C355" t="s">
         <v>35</v>
@@ -34867,7 +34879,7 @@
         <v>23</v>
       </c>
       <c r="AD355" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="356" spans="1:30">
@@ -34875,7 +34887,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C356" t="s">
         <v>39</v>
@@ -34959,7 +34971,7 @@
         <v>37</v>
       </c>
       <c r="AD356" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="357" spans="1:30">
@@ -34967,7 +34979,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -34976,7 +34988,7 @@
         <v>24</v>
       </c>
       <c r="E357" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F357">
         <v>13</v>
@@ -35051,7 +35063,7 @@
         <v>39</v>
       </c>
       <c r="AD357" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="358" spans="1:30">
@@ -35059,7 +35071,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C358" t="s">
         <v>31</v>
@@ -35068,7 +35080,7 @@
         <v>27</v>
       </c>
       <c r="E358" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F358">
         <v>12</v>
@@ -35143,7 +35155,7 @@
         <v>14</v>
       </c>
       <c r="AD358" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="359" spans="1:30">
@@ -35151,7 +35163,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C359" t="s">
         <v>35</v>
@@ -35235,7 +35247,7 @@
         <v>34</v>
       </c>
       <c r="AD359" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="360" spans="1:30">
@@ -35243,7 +35255,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -35252,7 +35264,7 @@
         <v>30</v>
       </c>
       <c r="E360" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F360">
         <v>12</v>
@@ -35324,7 +35336,7 @@
         <v>25</v>
       </c>
       <c r="AD360" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="361" spans="1:30">
@@ -35332,7 +35344,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C361" t="s">
         <v>59</v>
@@ -35413,7 +35425,7 @@
         <v>1</v>
       </c>
       <c r="AD361" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="362" spans="1:30">
@@ -35421,7 +35433,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C362" t="s">
         <v>31</v>
@@ -35505,7 +35517,7 @@
         <v>20</v>
       </c>
       <c r="AD362" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="363" spans="1:30">
@@ -35513,7 +35525,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C363" t="s">
         <v>35</v>
@@ -35522,7 +35534,7 @@
         <v>20</v>
       </c>
       <c r="E363" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F363">
         <v>12</v>
@@ -35597,7 +35609,7 @@
         <v>30</v>
       </c>
       <c r="AD363" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="364" spans="1:30">
@@ -35605,7 +35617,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C364" t="s">
         <v>31</v>
@@ -35614,7 +35626,7 @@
         <v>21</v>
       </c>
       <c r="E364" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F364">
         <v>14</v>
@@ -35689,7 +35701,7 @@
         <v>20</v>
       </c>
       <c r="AD364" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="365" spans="1:30">
@@ -35697,7 +35709,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C365" t="s">
         <v>31</v>
@@ -35706,7 +35718,7 @@
         <v>28</v>
       </c>
       <c r="E365" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F365">
         <v>11</v>
@@ -35781,7 +35793,7 @@
         <v>28</v>
       </c>
       <c r="AD365" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="366" spans="1:30">
@@ -35789,7 +35801,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -35873,7 +35885,7 @@
         <v>35</v>
       </c>
       <c r="AD366" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="367" spans="1:30">
@@ -35881,7 +35893,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C367" t="s">
         <v>35</v>
@@ -35890,7 +35902,7 @@
         <v>22</v>
       </c>
       <c r="E367" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F367">
         <v>13</v>
@@ -35962,7 +35974,7 @@
         <v>39</v>
       </c>
       <c r="AD367" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="368" spans="1:30">
@@ -35970,7 +35982,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C368" t="s">
         <v>31</v>
@@ -36054,7 +36066,7 @@
         <v>22</v>
       </c>
       <c r="AD368" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="369" spans="1:30">
@@ -36062,7 +36074,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C369" t="s">
         <v>31</v>
@@ -36143,7 +36155,7 @@
         <v>1</v>
       </c>
       <c r="AD369" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="370" spans="1:30">
@@ -36151,7 +36163,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C370" t="s">
         <v>31</v>
@@ -36160,7 +36172,7 @@
         <v>24</v>
       </c>
       <c r="E370" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F370">
         <v>13</v>
@@ -36235,7 +36247,7 @@
         <v>35</v>
       </c>
       <c r="AD370" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="371" spans="1:30">
@@ -36243,7 +36255,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C371" t="s">
         <v>35</v>
@@ -36252,7 +36264,7 @@
         <v>21</v>
       </c>
       <c r="E371" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F371">
         <v>11</v>
@@ -36327,7 +36339,7 @@
         <v>33</v>
       </c>
       <c r="AD371" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="372" spans="1:30">
@@ -36335,7 +36347,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C372" t="s">
         <v>35</v>
@@ -36344,7 +36356,7 @@
         <v>30</v>
       </c>
       <c r="E372" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F372">
         <v>12</v>
@@ -36419,7 +36431,7 @@
         <v>35</v>
       </c>
       <c r="AD372" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="373" spans="1:30">
@@ -36427,7 +36439,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C373" t="s">
         <v>31</v>
@@ -36436,7 +36448,7 @@
         <v>33</v>
       </c>
       <c r="E373" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F373">
         <v>8</v>
@@ -36511,7 +36523,7 @@
         <v>15</v>
       </c>
       <c r="AD373" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="374" spans="1:30">
@@ -36519,7 +36531,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C374" t="s">
         <v>39</v>
@@ -36528,7 +36540,7 @@
         <v>32</v>
       </c>
       <c r="E374" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F374">
         <v>8</v>
@@ -36603,7 +36615,7 @@
         <v>15</v>
       </c>
       <c r="AD374" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="375" spans="1:30">
@@ -36611,7 +36623,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C375" t="s">
         <v>31</v>
@@ -36695,7 +36707,7 @@
         <v>15</v>
       </c>
       <c r="AD375" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="376" spans="1:30">
@@ -36703,7 +36715,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -36712,7 +36724,7 @@
         <v>21</v>
       </c>
       <c r="E376" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F376">
         <v>1</v>
@@ -36780,7 +36792,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -36872,7 +36884,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C378" t="s">
         <v>31</v>
@@ -36956,7 +36968,7 @@
         <v>13</v>
       </c>
       <c r="AD378" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="379" spans="1:30">
@@ -36964,7 +36976,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C379" t="s">
         <v>31</v>
@@ -36973,7 +36985,7 @@
         <v>28</v>
       </c>
       <c r="E379" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F379">
         <v>13</v>
@@ -37048,7 +37060,7 @@
         <v>26</v>
       </c>
       <c r="AD379" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="380" spans="1:30">
@@ -37056,7 +37068,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C380" t="s">
         <v>35</v>
@@ -37140,7 +37152,7 @@
         <v>3</v>
       </c>
       <c r="AD380" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="381" spans="1:30">
@@ -37148,7 +37160,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -37232,7 +37244,7 @@
         <v>14</v>
       </c>
       <c r="AD381" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="382" spans="1:30">
@@ -37240,7 +37252,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C382" t="s">
         <v>59</v>
@@ -37249,7 +37261,7 @@
         <v>20</v>
       </c>
       <c r="E382" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F382">
         <v>13</v>
@@ -37324,7 +37336,7 @@
         <v>34</v>
       </c>
       <c r="AD382" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="383" spans="1:30">
@@ -37332,7 +37344,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C383" t="s">
         <v>35</v>
@@ -37341,7 +37353,7 @@
         <v>30</v>
       </c>
       <c r="E383" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F383">
         <v>7</v>
@@ -37424,7 +37436,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C384" t="s">
         <v>31</v>
@@ -37508,7 +37520,7 @@
         <v>29</v>
       </c>
       <c r="AD384" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="385" spans="1:30">
@@ -37516,7 +37528,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C385" t="s">
         <v>35</v>
@@ -37525,7 +37537,7 @@
         <v>31</v>
       </c>
       <c r="E385" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F385">
         <v>7</v>
@@ -37600,7 +37612,7 @@
         <v>12</v>
       </c>
       <c r="AD385" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="386" spans="1:30">
@@ -37608,7 +37620,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C386" t="s">
         <v>31</v>
@@ -37617,7 +37629,7 @@
         <v>23</v>
       </c>
       <c r="E386" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F386">
         <v>1</v>
@@ -37692,7 +37704,7 @@
         <v>2</v>
       </c>
       <c r="AD386" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="387" spans="1:30">
@@ -37700,7 +37712,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C387" t="s">
         <v>39</v>
@@ -37709,7 +37721,7 @@
         <v>26</v>
       </c>
       <c r="E387" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F387">
         <v>6</v>
@@ -37784,7 +37796,7 @@
         <v>14</v>
       </c>
       <c r="AD387" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="388" spans="1:30">
@@ -37792,7 +37804,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -37801,7 +37813,7 @@
         <v>22</v>
       </c>
       <c r="E388" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F388">
         <v>1</v>
@@ -37881,7 +37893,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -37890,7 +37902,7 @@
         <v>30</v>
       </c>
       <c r="E389" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F389">
         <v>11</v>
@@ -37965,7 +37977,7 @@
         <v>22</v>
       </c>
       <c r="AD389" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="390" spans="1:30">
@@ -37973,7 +37985,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C390" t="s">
         <v>31</v>
@@ -37982,7 +37994,7 @@
         <v>28</v>
       </c>
       <c r="E390" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F390">
         <v>13</v>
@@ -38057,7 +38069,7 @@
         <v>28</v>
       </c>
       <c r="AD390" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="391" spans="1:30">
@@ -38065,7 +38077,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C391" t="s">
         <v>39</v>
@@ -38074,7 +38086,7 @@
         <v>27</v>
       </c>
       <c r="E391" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F391">
         <v>12</v>
@@ -38146,7 +38158,7 @@
         <v>21</v>
       </c>
       <c r="AD391" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="392" spans="1:30">
@@ -38154,7 +38166,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -38163,7 +38175,7 @@
         <v>24</v>
       </c>
       <c r="E392" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F392">
         <v>1</v>
@@ -38240,7 +38252,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -38249,7 +38261,7 @@
         <v>33</v>
       </c>
       <c r="E393" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F393">
         <v>13</v>
@@ -38324,7 +38336,7 @@
         <v>28</v>
       </c>
       <c r="AD393" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="394" spans="1:30">
@@ -38332,7 +38344,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C394" t="s">
         <v>39</v>
@@ -38341,7 +38353,7 @@
         <v>23</v>
       </c>
       <c r="E394" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F394">
         <v>13</v>
@@ -38416,7 +38428,7 @@
         <v>44</v>
       </c>
       <c r="AD394" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="395" spans="1:30">
@@ -38424,7 +38436,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C395" t="s">
         <v>31</v>
@@ -38505,7 +38517,7 @@
         <v>0</v>
       </c>
       <c r="AD395" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="396" spans="1:30">
@@ -38513,7 +38525,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C396" t="s">
         <v>31</v>
@@ -38522,7 +38534,7 @@
         <v>23</v>
       </c>
       <c r="E396" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F396">
         <v>14</v>
@@ -38597,7 +38609,7 @@
         <v>24</v>
       </c>
       <c r="AD396" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="397" spans="1:30">
@@ -38605,7 +38617,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -38689,7 +38701,7 @@
         <v>36</v>
       </c>
       <c r="AD397" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="398" spans="1:30">
@@ -38697,7 +38709,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C398" t="s">
         <v>35</v>
@@ -38789,7 +38801,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C399" t="s">
         <v>39</v>
@@ -38873,7 +38885,7 @@
         <v>43</v>
       </c>
       <c r="AD399" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="400" spans="1:30">
@@ -38881,7 +38893,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C400" t="s">
         <v>39</v>
@@ -38962,7 +38974,7 @@
         <v>6</v>
       </c>
       <c r="AD400" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="401" spans="1:30">
@@ -38970,7 +38982,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C401" t="s">
         <v>35</v>
@@ -39047,7 +39059,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C402" t="s">
         <v>39</v>
@@ -39131,7 +39143,7 @@
         <v>40</v>
       </c>
       <c r="AD402" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="403" spans="1:30">
@@ -39139,7 +39151,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C403" t="s">
         <v>35</v>
@@ -39231,7 +39243,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -39240,7 +39252,7 @@
         <v>23</v>
       </c>
       <c r="E404" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F404">
         <v>14</v>
@@ -39315,7 +39327,7 @@
         <v>37</v>
       </c>
       <c r="AD404" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="405" spans="1:30">
@@ -39323,7 +39335,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C405" t="s">
         <v>39</v>
@@ -39407,7 +39419,7 @@
         <v>26</v>
       </c>
       <c r="AD405" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="406" spans="1:30">
@@ -39415,7 +39427,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C406" t="s">
         <v>31</v>
@@ -39499,7 +39511,7 @@
         <v>19</v>
       </c>
       <c r="AD406" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="407" spans="1:30">
@@ -39507,7 +39519,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C407" t="s">
         <v>35</v>
@@ -39591,7 +39603,7 @@
         <v>18</v>
       </c>
       <c r="AD407" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="408" spans="1:30">
@@ -39599,7 +39611,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C408" t="s">
         <v>35</v>
@@ -39608,7 +39620,7 @@
         <v>28</v>
       </c>
       <c r="E408" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F408">
         <v>12</v>
@@ -39683,7 +39695,7 @@
         <v>31</v>
       </c>
       <c r="AD408" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="409" spans="1:30">
@@ -39691,7 +39703,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C409" t="s">
         <v>35</v>
@@ -39700,7 +39712,7 @@
         <v>24</v>
       </c>
       <c r="E409" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F409">
         <v>7</v>
@@ -39772,7 +39784,7 @@
         <v>2</v>
       </c>
       <c r="AD409" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="410" spans="1:30">
@@ -39780,7 +39792,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C410" t="s">
         <v>59</v>
@@ -39864,7 +39876,7 @@
         <v>38</v>
       </c>
       <c r="AD410" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="411" spans="1:30">
@@ -39872,7 +39884,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C411" t="s">
         <v>35</v>
@@ -39881,7 +39893,7 @@
         <v>29</v>
       </c>
       <c r="E411" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F411">
         <v>2</v>
@@ -39956,7 +39968,7 @@
         <v>0</v>
       </c>
       <c r="AD411" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="412" spans="1:30">
@@ -39964,7 +39976,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C412" t="s">
         <v>59</v>
@@ -40048,7 +40060,7 @@
         <v>26</v>
       </c>
       <c r="AD412" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="413" spans="1:30">
@@ -40056,7 +40068,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C413" t="s">
         <v>31</v>
@@ -40128,7 +40140,7 @@
         <v>0</v>
       </c>
       <c r="AD413" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="414" spans="1:30">
@@ -40136,7 +40148,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C414" t="s">
         <v>39</v>
@@ -40222,7 +40234,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C415" t="s">
         <v>35</v>
@@ -40306,7 +40318,7 @@
         <v>21</v>
       </c>
       <c r="AD415" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="416" spans="1:30">
@@ -40314,7 +40326,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C416" t="s">
         <v>35</v>
@@ -40398,7 +40410,7 @@
         <v>3</v>
       </c>
       <c r="AD416" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="417" spans="1:30">
@@ -40406,7 +40418,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C417" t="s">
         <v>39</v>
@@ -40490,7 +40502,7 @@
         <v>33</v>
       </c>
       <c r="AD417" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="418" spans="1:30">
@@ -40498,7 +40510,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C418" t="s">
         <v>59</v>
@@ -40507,7 +40519,7 @@
         <v>23</v>
       </c>
       <c r="E418" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F418">
         <v>9</v>
@@ -40582,7 +40594,7 @@
         <v>24</v>
       </c>
       <c r="AD418" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="419" spans="1:30">
@@ -40590,7 +40602,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C419" t="s">
         <v>31</v>
@@ -40599,7 +40611,7 @@
         <v>28</v>
       </c>
       <c r="E419" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F419">
         <v>5</v>
@@ -40671,7 +40683,7 @@
         <v>10</v>
       </c>
       <c r="AD419" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="420" spans="1:30">
@@ -40679,7 +40691,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C420" t="s">
         <v>39</v>
@@ -40688,7 +40700,7 @@
         <v>23</v>
       </c>
       <c r="E420" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F420">
         <v>6</v>
@@ -40760,7 +40772,7 @@
         <v>19</v>
       </c>
       <c r="AD420" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="421" spans="1:30">
@@ -40768,7 +40780,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C421" t="s">
         <v>59</v>
@@ -40777,7 +40789,7 @@
         <v>24</v>
       </c>
       <c r="E421" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F421">
         <v>5</v>
@@ -40849,7 +40861,7 @@
         <v>7</v>
       </c>
       <c r="AD421" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="422" spans="1:30">
@@ -40857,7 +40869,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C422" t="s">
         <v>31</v>
@@ -40866,7 +40878,7 @@
         <v>32</v>
       </c>
       <c r="E422" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F422">
         <v>12</v>
@@ -40941,7 +40953,7 @@
         <v>11</v>
       </c>
       <c r="AD422" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="423" spans="1:30">
@@ -40949,7 +40961,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -41033,7 +41045,7 @@
         <v>21</v>
       </c>
       <c r="AD423" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="424" spans="1:30">
@@ -41041,7 +41053,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C424" t="s">
         <v>39</v>
@@ -41050,7 +41062,7 @@
         <v>21</v>
       </c>
       <c r="E424" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F424">
         <v>5</v>
@@ -41122,7 +41134,7 @@
         <v>4</v>
       </c>
       <c r="AD424" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="425" spans="1:30">
@@ -41130,7 +41142,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C425" t="s">
         <v>59</v>
@@ -41139,7 +41151,7 @@
         <v>24</v>
       </c>
       <c r="E425" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F425">
         <v>6</v>
@@ -41214,7 +41226,7 @@
         <v>17</v>
       </c>
       <c r="AD425" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="426" spans="1:30">
@@ -41222,7 +41234,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -41306,7 +41318,7 @@
         <v>22</v>
       </c>
       <c r="AD426" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="427" spans="1:30">
@@ -41314,7 +41326,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -41398,7 +41410,7 @@
         <v>2</v>
       </c>
       <c r="AD427" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="428" spans="1:30">
@@ -41406,7 +41418,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C428" t="s">
         <v>35</v>
@@ -41490,7 +41502,7 @@
         <v>7</v>
       </c>
       <c r="AD428" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="429" spans="1:30">
@@ -41498,7 +41510,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C429" t="s">
         <v>28</v>
@@ -41507,7 +41519,7 @@
         <v>23</v>
       </c>
       <c r="E429" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F429">
         <v>7</v>
@@ -41579,7 +41591,7 @@
         <v>3</v>
       </c>
       <c r="AD429" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="430" spans="1:30">
@@ -41587,7 +41599,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C430" t="s">
         <v>28</v>
@@ -41671,7 +41683,7 @@
         <v>28</v>
       </c>
       <c r="AD430" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="431" spans="1:30">
@@ -41679,7 +41691,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C431" t="s">
         <v>35</v>
@@ -41763,7 +41775,7 @@
         <v>23</v>
       </c>
       <c r="AD431" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="432" spans="1:30">
@@ -41771,7 +41783,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C432" t="s">
         <v>39</v>
@@ -41855,7 +41867,7 @@
         <v>44</v>
       </c>
       <c r="AD432" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="433" spans="1:30">
@@ -41863,7 +41875,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C433" t="s">
         <v>39</v>
@@ -41872,7 +41884,7 @@
         <v>22</v>
       </c>
       <c r="E433" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F433">
         <v>10</v>
@@ -41952,7 +41964,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C434" t="s">
         <v>39</v>
@@ -41961,7 +41973,7 @@
         <v>21</v>
       </c>
       <c r="E434" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F434">
         <v>5</v>
@@ -42033,7 +42045,7 @@
         <v>12</v>
       </c>
       <c r="AD434" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="435" spans="1:30">
@@ -42041,16 +42053,84 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C435" t="s">
         <v>28</v>
       </c>
       <c r="D435" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E435" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="436" spans="1:30">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436" t="s">
+        <v>701</v>
+      </c>
+      <c r="C436" t="s">
+        <v>35</v>
+      </c>
+      <c r="D436" t="s">
+        <v>700</v>
+      </c>
+      <c r="E436" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="437" spans="1:30">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437" t="s">
+        <v>702</v>
+      </c>
+      <c r="C437" t="s">
+        <v>39</v>
+      </c>
+      <c r="D437" t="s">
+        <v>700</v>
+      </c>
+      <c r="E437" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="438" spans="1:30">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438" t="s">
+        <v>704</v>
+      </c>
+      <c r="C438" t="s">
+        <v>28</v>
+      </c>
+      <c r="D438" t="s">
+        <v>700</v>
+      </c>
+      <c r="E438" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="439" spans="1:30">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439" t="s">
+        <v>705</v>
+      </c>
+      <c r="C439" t="s">
+        <v>39</v>
+      </c>
+      <c r="D439" t="s">
+        <v>700</v>
+      </c>
+      <c r="E439" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
